--- a/resource/data_schema/sizecom_20190403_v02.xlsx
+++ b/resource/data_schema/sizecom_20190403_v02.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="88">
   <si>
     <t>CATEGORY_DIC</t>
   </si>
@@ -252,6 +252,27 @@
   </si>
   <si>
     <t>SIZE_UNIT_NAME</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>PRODUCT_REVIEW</t>
+  </si>
+  <si>
+    <t>PRODUCT_REVIEW_ID</t>
+  </si>
+  <si>
+    <t>REVIEW_TITLE</t>
+  </si>
+  <si>
+    <t>REVIEW_CONTENT</t>
+  </si>
+  <si>
+    <t>REVIEW_SCORE</t>
   </si>
 </sst>
 </file>
@@ -620,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H135"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3028,6 +3049,312 @@
         <v>11</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" t="s">
+        <v>82</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" t="s">
+        <v>84</v>
+      </c>
+      <c r="C129" t="s">
+        <v>84</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" t="s">
+        <v>85</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>46</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>87</v>
+      </c>
+      <c r="C134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>